--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Work\covid_cusco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\DIRESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4923F335-B199-4A92-A601-FC01B70E7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7416" yWindow="2712" windowWidth="23040" windowHeight="7320" xr2:uid="{6F1C67DC-F352-4C08-898E-8C30B2794AD3}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$141</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="275">
   <si>
     <t>Programa</t>
   </si>
@@ -188,9 +190,6 @@
     <t>2b_series_diarias_provincias.do</t>
   </si>
   <si>
-    <t>data_series_provincias_2020.dta</t>
-  </si>
-  <si>
     <t>data_series_provincias_2021.dta</t>
   </si>
   <si>
@@ -227,17 +226,668 @@
     <t>incidencia_provincial.png</t>
   </si>
   <si>
-    <t>data_series_provincial_2021.dta</t>
-  </si>
-  <si>
-    <t>Todo sobre COVID-19 en Cusco</t>
+    <t>3d_numero_sintomaticos.do</t>
+  </si>
+  <si>
+    <t>(Sólo calcula un valor: # sintomáticos)</t>
+  </si>
+  <si>
+    <t>2d_series_semanales_region</t>
+  </si>
+  <si>
+    <t>serie_semanal_region.dta</t>
+  </si>
+  <si>
+    <t>4a_figura_casos_def_region</t>
+  </si>
+  <si>
+    <t>defunciones_20_21.png</t>
+  </si>
+  <si>
+    <t>defunciones_20_21.pdf</t>
+  </si>
+  <si>
+    <t>defunciones_crecimiento_2021.pdf</t>
+  </si>
+  <si>
+    <t>defunciones_crecimiento_2021.png</t>
+  </si>
+  <si>
+    <t>positivos_20_21.png</t>
+  </si>
+  <si>
+    <t>positivos_20_21.pdf</t>
+  </si>
+  <si>
+    <t>positivos_crecimiento_2021.png</t>
+  </si>
+  <si>
+    <t>positivos_crecimiento_2021.pdf</t>
+  </si>
+  <si>
+    <t>sintomaticos_20_21.png</t>
+  </si>
+  <si>
+    <t>sintomaticos_20_21.pdf</t>
+  </si>
+  <si>
+    <t>sinto_prueba_20_21.png</t>
+  </si>
+  <si>
+    <t>sinto_prueba_20_21.pdf</t>
+  </si>
+  <si>
+    <t>positividad_ambas.png</t>
+  </si>
+  <si>
+    <t>positividad_ambas.pdf</t>
+  </si>
+  <si>
+    <t>4b_figura_mort_edad_region.do</t>
+  </si>
+  <si>
+    <t>serie_semanal_cas_def_gedad.dta</t>
+  </si>
+  <si>
+    <t>mortalidad_edad.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_80.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_80.pdf</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_70.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_70.pdf</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_60.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_60.pdf</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_50.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_50.pdf</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_40.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_40.pdf</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_30.png</t>
+  </si>
+  <si>
+    <t>mortalidad_edad_30.pdf</t>
+  </si>
+  <si>
+    <t>data_series_provincias_2020_2021.dta</t>
+  </si>
+  <si>
+    <t>serie_semanal_provincias.dta</t>
+  </si>
+  <si>
+    <t>base_sinadef_2019.xlsx</t>
+  </si>
+  <si>
+    <t>4c_figura_inci_mort_positi_provincial.do</t>
+  </si>
+  <si>
+    <t>incidencia_mortalidad_20_21_`i'.png</t>
+  </si>
+  <si>
+    <t>incidencia_mortalidad_20_21_`i'.pnf</t>
+  </si>
+  <si>
+    <t>positividad_20_21_`i'.png</t>
+  </si>
+  <si>
+    <t>positividad_20_21_`i'.pdf</t>
+  </si>
+  <si>
+    <t>defunciones_totales_region_2019.dta</t>
+  </si>
+  <si>
+    <t>defunciones_totales_provincial_2019.dta</t>
+  </si>
+  <si>
+    <t>1l_base_total_defunciones_2019.do</t>
+  </si>
+  <si>
+    <t>defunciones_totales_semanal_2020_2021.dta</t>
+  </si>
+  <si>
+    <t>base_sinadef_2020_2021_total.xlsx</t>
+  </si>
+  <si>
+    <t>1m_base_total_defunciones_2020_2021_regional.do</t>
+  </si>
+  <si>
+    <t>data_series_provincias_2020_2021.do</t>
+  </si>
+  <si>
+    <t>defunciones_totales_region_2019_2020.dta</t>
+  </si>
+  <si>
+    <t>1n_base_total_defunciones_2020_2021_regional.do</t>
+  </si>
+  <si>
+    <t>defunciones_totales_provincias_2020_2021.dta</t>
+  </si>
+  <si>
+    <t>defunciones_totales_2020_2021.dta</t>
+  </si>
+  <si>
+    <t>exceso_region.png</t>
+  </si>
+  <si>
+    <t>exceso_region.pdf</t>
+  </si>
+  <si>
+    <t>4d_figura_exceso_regional</t>
+  </si>
+  <si>
+    <t>4e_figura_exceso_provincial</t>
+  </si>
+  <si>
+    <t>exceso_`i'.png</t>
+  </si>
+  <si>
+    <t>exceso_`i'.pdf</t>
+  </si>
+  <si>
+    <t>base_sistema_referencias.xlsx</t>
+  </si>
+  <si>
+    <t>uci.pdf</t>
+  </si>
+  <si>
+    <t>uci.png</t>
+  </si>
+  <si>
+    <t>nivel_3.pdf</t>
+  </si>
+  <si>
+    <t>nivel_3.png</t>
+  </si>
+  <si>
+    <t>nivel_2.png</t>
+  </si>
+  <si>
+    <t>nivel_2.pdf</t>
+  </si>
+  <si>
+    <t>4f_figuras_hospitales.do</t>
+  </si>
+  <si>
+    <t>h_regional.pdf</t>
+  </si>
+  <si>
+    <t>h_regional.png</t>
+  </si>
+  <si>
+    <t>h_lorena.png</t>
+  </si>
+  <si>
+    <t>h_lorena.pdf</t>
+  </si>
+  <si>
+    <t>h_adolfo.pdf</t>
+  </si>
+  <si>
+    <t>h_adolfo.png</t>
+  </si>
+  <si>
+    <t>1k_datos_dashboard.do</t>
+  </si>
+  <si>
+    <t>data_dashboard.dta</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\MasterDofile</t>
+  </si>
+  <si>
+    <t>(Actualiza los datos del Dashboard)</t>
+  </si>
+  <si>
+    <t>Limpieza de Base de Datos</t>
+  </si>
+  <si>
+    <t>Generar Series de Datos (diaria, demanal, panel)</t>
+  </si>
+  <si>
+    <t>"Sala Situacional COVID-19, Región Cusco", Semanal</t>
+  </si>
+  <si>
+    <t>"Boletín COVID-19, Región Cusco", Mensual</t>
+  </si>
+  <si>
+    <t>"Sala Situacional COVID-19", Diaria</t>
+  </si>
+  <si>
+    <t>"Dashboard COVID-19", Diaria</t>
+  </si>
+  <si>
+    <t>base_noticovid_2021_sin_com.xlsx</t>
+  </si>
+  <si>
+    <t>data_noti_boletin.dta</t>
+  </si>
+  <si>
+    <t>data_sis_boletin.dta</t>
+  </si>
+  <si>
+    <t>base_siscovid_ag_2021_1.xlsx</t>
+  </si>
+  <si>
+    <t>data_sis_ag_boletin_1.dta</t>
+  </si>
+  <si>
+    <t>data_sis_ag_boletin.dta</t>
+  </si>
+  <si>
+    <t>data_boletin.dta</t>
+  </si>
+  <si>
+    <t>6a_base_vacuna.do</t>
+  </si>
+  <si>
+    <t>vacunacovid.csv</t>
+  </si>
+  <si>
+    <t>base_vacunados.dta</t>
+  </si>
+  <si>
+    <t>Secuenciamiento</t>
+  </si>
+  <si>
+    <t>5a_base_secuenciamiento_netlab.do</t>
+  </si>
+  <si>
+    <t>5b_base_secuenciamiento_upch.do</t>
+  </si>
+  <si>
+    <t>5c_juntar.do</t>
+  </si>
+  <si>
+    <t>5d_figura_secuenciamiento.do</t>
+  </si>
+  <si>
+    <t>5e_mapas_secuenciamiento.do</t>
+  </si>
+  <si>
+    <t>base_netlab_junio.xlsx</t>
+  </si>
+  <si>
+    <t>base_netlab_julio.xlsx</t>
+  </si>
+  <si>
+    <t>base_netlab_abril_mayo.xlsx</t>
+  </si>
+  <si>
+    <t>base_netlab_mayo_junio</t>
+  </si>
+  <si>
+    <t>base_netlab_agosto_septiembre</t>
+  </si>
+  <si>
+    <t>base_netlab_septiembre</t>
+  </si>
+  <si>
+    <t>base_netlab_unsaac</t>
+  </si>
+  <si>
+    <t>base_secuenciamiento_cayetano.xlsx</t>
+  </si>
+  <si>
+    <t>datos_secuenciamiento_upch.dta</t>
+  </si>
+  <si>
+    <t>datos_secuenciamiento_netlab</t>
+  </si>
+  <si>
+    <t>datos_distritales.shp</t>
+  </si>
+  <si>
+    <t>datos_distritales.dbf</t>
+  </si>
+  <si>
+    <t>PROVINCIAS.shp</t>
+  </si>
+  <si>
+    <t>mapa_cusco_distrital.dta</t>
+  </si>
+  <si>
+    <t>datos_variantes.dta</t>
+  </si>
+  <si>
+    <t>datos_variantes_mapa.dta</t>
+  </si>
+  <si>
+    <t>variantes_distrital.png</t>
+  </si>
+  <si>
+    <t>variantes_distrital.pdf</t>
+  </si>
+  <si>
+    <t>variantes_distrital_cusco.png</t>
+  </si>
+  <si>
+    <t>variantes_distrital_cusco.pdf</t>
+  </si>
+  <si>
+    <t>variantes_provincial.png</t>
+  </si>
+  <si>
+    <t>variantes_provincial.pdf</t>
+  </si>
+  <si>
+    <t>variantes_provincial_lambda.png</t>
+  </si>
+  <si>
+    <t>variantes_provincial_lambda.pdf</t>
+  </si>
+  <si>
+    <t>variantes_provincial_gamma.png</t>
+  </si>
+  <si>
+    <t>variantes_provincial_gamma.pdf</t>
+  </si>
+  <si>
+    <t>variantes_provincial_delta.png</t>
+  </si>
+  <si>
+    <t>variantes_provincial_delta.pdf</t>
+  </si>
+  <si>
+    <t>variantes.png</t>
+  </si>
+  <si>
+    <t>variantes.pdf</t>
+  </si>
+  <si>
+    <t>6b_figura_vacunacion.do</t>
+  </si>
+  <si>
+    <t>vacunacion_grupo_edad.png</t>
+  </si>
+  <si>
+    <t>vacunacion_grupo_edad.pdf</t>
+  </si>
+  <si>
+    <t>base_vacunados_variables.dta</t>
+  </si>
+  <si>
+    <t>vacunacion_provincial_edad_`i'.png</t>
+  </si>
+  <si>
+    <t>vacunacion_provincial_edad_`i'.pdf</t>
+  </si>
+  <si>
+    <t>Generar los ubigeos para identificar a cada distrito de Cusco</t>
+  </si>
+  <si>
+    <t>Generar los códigos de establecimiento</t>
+  </si>
+  <si>
+    <t>Construir la base Noti del 2020</t>
+  </si>
+  <si>
+    <t>Construir la base Noti del 2021</t>
+  </si>
+  <si>
+    <t>Construir la base SISCOVID de pruebas rápidas del 2021</t>
+  </si>
+  <si>
+    <t>Construir la base SISCOVID de pruebas rápidas del 2020</t>
+  </si>
+  <si>
+    <t>Construir la base SISCOVID de pruebas antigénicas del 2021, primera parte</t>
+  </si>
+  <si>
+    <t>Construir la base SISCOVID de pruebas antigénicas del 2021, segunda parte</t>
+  </si>
+  <si>
+    <t>Construir la base de SINADEF del 2020</t>
+  </si>
+  <si>
+    <t>Construir la base de SINADEF del 2021</t>
+  </si>
+  <si>
+    <t>Juntar las base de NOTICOVD, SISCOVID (pr y ag), y SINADEF</t>
+  </si>
+  <si>
+    <t>Generar los datos con las variables para el mapa de calor semanal</t>
+  </si>
+  <si>
+    <t>Generar la serie de datos diaria para toda la región</t>
+  </si>
+  <si>
+    <t>Generar un panel de datos a nivel provincial</t>
+  </si>
+  <si>
+    <t>Generar la serie de datos diaria a nivel provincial para 2020 y 2021 y una sólo para el 2021</t>
+  </si>
+  <si>
+    <t>Graficar la mortalidad e incidencia provinciala la fecha actual</t>
+  </si>
+  <si>
+    <t>Graficar las defunciones y casos por etapas de vidaa la fecha actual</t>
+  </si>
+  <si>
+    <t>Graficar la tasa de positividad PCR y AG a la fecha actual</t>
+  </si>
+  <si>
+    <t>Calcular el número de sintomáticos a la fecha actual</t>
+  </si>
+  <si>
+    <t>Generar la base para el Dashboard</t>
+  </si>
+  <si>
+    <t>Actualizar los datos del Dashboard</t>
+  </si>
+  <si>
+    <t>Graficar variables relevantes para la región por semanas epidemiológicas</t>
+  </si>
+  <si>
+    <t>Generar variables relevantes para la región por semanas epidemiológicas</t>
+  </si>
+  <si>
+    <t>Graficar la mortalidad por grupos de edad y con hitos de vacunas</t>
+  </si>
+  <si>
+    <t>Generar variables relevantes para las provincias por semanas epidemiológicas</t>
+  </si>
+  <si>
+    <t>Graficar variables relevantes para las provincias por semanas epidemiológicas</t>
+  </si>
+  <si>
+    <t>Generar la base de SINADEF de las defunciones por toda causa del 2019</t>
+  </si>
+  <si>
+    <t>Generar la base de SINADEF del 2020 y 2021 para las provincias</t>
+  </si>
+  <si>
+    <t>Generar la base de SINADEF del 2020 y 2021 para la región</t>
+  </si>
+  <si>
+    <t>Graficar el exceso para la región</t>
+  </si>
+  <si>
+    <t>Graficar el exceso para las provincias</t>
+  </si>
+  <si>
+    <t>Graficar para los hospitales</t>
+  </si>
+  <si>
+    <t>Genera la base de datos de secuenciamiento de NETLAB y UNSAAC</t>
+  </si>
+  <si>
+    <t>Genera la base de datos de secuenciamiento de UPCH</t>
+  </si>
+  <si>
+    <t>Juntar las bases de secuenciamiento de secuenciamientos</t>
+  </si>
+  <si>
+    <t>Graficar la serie de tiempo mensual de las variantes, Región Cusco</t>
+  </si>
+  <si>
+    <t>Graficar los mapas de las variantes</t>
+  </si>
+  <si>
+    <t>Generar la base de datos de vacunados con sus dosis</t>
+  </si>
+  <si>
+    <t>Generar los sintomas, comorbilidades y signos del NOTICOVID</t>
+  </si>
+  <si>
+    <t>Generar los sintomas, comorbilidades del SISCOVID pr</t>
+  </si>
+  <si>
+    <t>Generar los sintomas, comorbilidades del SISCOVID ag</t>
+  </si>
+  <si>
+    <t>Juntar la base de datos</t>
+  </si>
+  <si>
+    <t>7e_figura_sintomas_comorbilidad</t>
+  </si>
+  <si>
+    <t>7f_lugar_fallecimiento</t>
+  </si>
+  <si>
+    <t>7g_figura_inci_morta_series</t>
+  </si>
+  <si>
+    <t>7a_base_noticovid_2021_variables.do</t>
+  </si>
+  <si>
+    <t>7b_base_siscovid_pr_2021_variables.do</t>
+  </si>
+  <si>
+    <t>7c_base_siscovid_ag_2021_variables.do</t>
+  </si>
+  <si>
+    <t>7d_unir_bases.do</t>
+  </si>
+  <si>
+    <t>tabla_sintoma.csv</t>
+  </si>
+  <si>
+    <t>tabla_comorbilidad.csv</t>
+  </si>
+  <si>
+    <t>tabla_signos.csv</t>
+  </si>
+  <si>
+    <t>incidencia_provincial_2021.png</t>
+  </si>
+  <si>
+    <t>incidencia_provincial_2021.pdf</t>
+  </si>
+  <si>
+    <t>Graficar el lugar de fallecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graficar la incidencia y mortalidad acumulada por provincia por semana </t>
+  </si>
+  <si>
+    <t>Graficar los sintomas, comorbilidades, y signos para el 2021</t>
+  </si>
+  <si>
+    <t>Vacunación</t>
+  </si>
+  <si>
+    <t>output (otro formato)</t>
+  </si>
+  <si>
+    <t>3d_figura_promedio_casos_def.do</t>
+  </si>
+  <si>
+    <t>promedio_casos.png</t>
+  </si>
+  <si>
+    <t>figura_sintoma.png</t>
+  </si>
+  <si>
+    <t>figura_sintoma.pdf</t>
+  </si>
+  <si>
+    <t>figura_comorbilidad.png</t>
+  </si>
+  <si>
+    <t>figura_comorbilidad.pdf</t>
+  </si>
+  <si>
+    <t>figura_signo.png</t>
+  </si>
+  <si>
+    <t>figura_signo.pdf</t>
+  </si>
+  <si>
+    <t>(Casi) Todo sobre COVID-19 en Cusco</t>
+  </si>
+  <si>
+    <t>lugar_defuncion.png</t>
+  </si>
+  <si>
+    <t>lugar_defuncion.pdf</t>
+  </si>
+  <si>
+    <t>mortalidad_provincial_2021.png</t>
+  </si>
+  <si>
+    <t>mortalidad_provincial_2021.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tablas </t>
+  </si>
+  <si>
+    <t>tabla_positividad_provincia.tex</t>
+  </si>
+  <si>
+    <t>tabla_incidencia_provincia.tex</t>
+  </si>
+  <si>
+    <t>tabla_letalidad_mortalidad_provincia.tex</t>
+  </si>
+  <si>
+    <t>tabla_resumen.tex</t>
+  </si>
+  <si>
+    <t>tabla_defunciones_cero_provincia.tex</t>
+  </si>
+  <si>
+    <t>4z_tabla_cero_defunciones.do</t>
+  </si>
+  <si>
+    <t>base_ocupacion_camas_hospitalarias.xlsx</t>
+  </si>
+  <si>
+    <t>(Actualiza semanalmente la ocupación de camas hospitalarias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar la ocupación de camas hospitalarias en el Dashboard </t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\GitHub\covid-cusco\dashboard-covid-geresa\data\source1_camas\main</t>
+  </si>
+  <si>
+    <t>2e_series_semanales_provincias.do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +910,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -275,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,14 +957,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,314 +1322,1344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4EBE06-0389-4819-A384-43A3BFABB864}">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="XFD46" s="4"/>
+    </row>
+    <row r="47" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+      <c r="E96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C112" t="s">
+        <v>189</v>
+      </c>
+      <c r="D112" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="s">
+        <v>240</v>
+      </c>
+      <c r="E123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>252</v>
+      </c>
+      <c r="D124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C129" t="s">
+        <v>259</v>
+      </c>
+      <c r="D129" t="s">
+        <v>260</v>
+      </c>
+      <c r="E129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>235</v>
+      </c>
+      <c r="B130" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>50</v>
+      <c r="C130" t="s">
+        <v>243</v>
+      </c>
+      <c r="D130" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>261</v>
+      </c>
+      <c r="D131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="44" max="16383" man="1"/>
+    <brk id="85" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\DIRESA_covid_cusco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C03090-43DB-45C6-A611-F264CE6725C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,24 +18,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$141</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="276">
   <si>
     <t>Programa</t>
   </si>
@@ -882,11 +876,14 @@
   <si>
     <t>2e_series_semanales_provincias.do</t>
   </si>
+  <si>
+    <t>datos_secuenciamiento_netlab.dta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1322,14 +1319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +2253,7 @@
         <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
         <v>225</v>

--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\DIRESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C03090-43DB-45C6-A611-F264CE6725C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,24 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$141</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="275">
   <si>
     <t>Programa</t>
   </si>
@@ -876,14 +882,11 @@
   <si>
     <t>2e_series_semanales_provincias.do</t>
   </si>
-  <si>
-    <t>datos_secuenciamiento_netlab.dta</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1319,14 +1322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2256,7 @@
         <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="E96" t="s">
         <v>225</v>

--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\DIRESA_covid_cusco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF66632-B0C1-4D91-A710-11D6211FB7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,19 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="274">
   <si>
     <t>Programa</t>
   </si>
@@ -370,9 +364,6 @@
     <t>1m_base_total_defunciones_2020_2021_regional.do</t>
   </si>
   <si>
-    <t>data_series_provincias_2020_2021.do</t>
-  </si>
-  <si>
     <t>defunciones_totales_region_2019_2020.dta</t>
   </si>
   <si>
@@ -886,7 +877,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1322,14 +1313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1333,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1360,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>12</v>
@@ -1374,7 +1365,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1391,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,7 +1443,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1471,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1495,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,7 +1519,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,7 +1533,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,7 +1557,7 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,7 +1592,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1613,7 +1604,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1631,7 +1622,7 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,7 +1636,7 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1665,7 +1656,7 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1677,7 +1668,7 @@
     </row>
     <row r="36" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1695,7 +1686,7 @@
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1714,7 +1705,7 @@
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1733,7 +1724,7 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1743,13 +1734,13 @@
     </row>
     <row r="43" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1764,7 +1755,7 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1776,7 +1767,7 @@
     </row>
     <row r="46" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1786,51 +1777,51 @@
     </row>
     <row r="47" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:5 16384:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,7 +1835,7 @@
         <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,7 +1852,7 @@
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1923,7 +1914,7 @@
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1984,16 +1975,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>91</v>
       </c>
       <c r="E68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,7 +2001,7 @@
         <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,12 +2023,12 @@
         <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,124 +2047,124 @@
         <v>101</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
         <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
         <v>98</v>
       </c>
       <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
         <v>109</v>
       </c>
-      <c r="D76" t="s">
-        <v>110</v>
-      </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
         <v>99</v>
       </c>
       <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
         <v>113</v>
       </c>
-      <c r="D78" t="s">
-        <v>114</v>
-      </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
         <v>115</v>
       </c>
-      <c r="C80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" t="s">
-        <v>116</v>
-      </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" t="s">
         <v>120</v>
-      </c>
-      <c r="D82" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" t="s">
         <v>125</v>
-      </c>
-      <c r="D84" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="E85" s="13"/>
     </row>
@@ -2186,7 +2177,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2195,165 +2186,165 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" t="s">
         <v>183</v>
       </c>
-      <c r="D98" t="s">
-        <v>184</v>
-      </c>
       <c r="E98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" t="s">
         <v>171</v>
       </c>
-      <c r="D99" t="s">
-        <v>172</v>
-      </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" t="s">
         <v>173</v>
-      </c>
-      <c r="D100" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C101" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" t="s">
         <v>175</v>
-      </c>
-      <c r="D101" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" t="s">
         <v>177</v>
-      </c>
-      <c r="D102" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" t="s">
         <v>179</v>
-      </c>
-      <c r="D103" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" t="s">
         <v>181</v>
-      </c>
-      <c r="D104" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,7 +2355,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -2379,7 +2370,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2388,38 +2379,38 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" t="s">
         <v>146</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>147</v>
-      </c>
-      <c r="C109" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" t="s">
         <v>185</v>
       </c>
-      <c r="B110" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>186</v>
       </c>
-      <c r="D110" t="s">
-        <v>187</v>
-      </c>
       <c r="E110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,10 +2418,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
         <v>189</v>
-      </c>
-      <c r="D112" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,7 +2433,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2451,49 +2442,49 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="s">
         <v>139</v>
       </c>
-      <c r="C115" t="s">
-        <v>140</v>
-      </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,116 +2494,116 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
         <v>252</v>
-      </c>
-      <c r="D124" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" t="s">
         <v>254</v>
-      </c>
-      <c r="D126" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" t="s">
         <v>256</v>
-      </c>
-      <c r="D128" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B129" t="s">
         <v>32</v>
       </c>
       <c r="C129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" t="s">
         <v>259</v>
       </c>
-      <c r="D129" t="s">
-        <v>260</v>
-      </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
         <v>44</v>
       </c>
       <c r="C130" t="s">
+        <v>242</v>
+      </c>
+      <c r="D130" t="s">
         <v>243</v>
       </c>
-      <c r="D130" t="s">
-        <v>244</v>
-      </c>
       <c r="E130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" t="s">
         <v>261</v>
-      </c>
-      <c r="D131" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,25 +2611,25 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C137" t="s">
         <v>91</v>
@@ -2646,12 +2637,12 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF66632-B0C1-4D91-A710-11D6211FB7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85137E0-1BBA-4902-8C32-149AAEB25BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$141</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,9 +451,6 @@
     <t>Limpieza de Base de Datos</t>
   </si>
   <si>
-    <t>Generar Series de Datos (diaria, demanal, panel)</t>
-  </si>
-  <si>
     <t>"Sala Situacional COVID-19, Región Cusco", Semanal</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
   </si>
   <si>
     <t>2e_series_semanales_provincias.do</t>
+  </si>
+  <si>
+    <t>Generar Series de Datos (diaria, semanal, panel)</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1351,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>12</v>
@@ -1382,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1622,7 +1622,7 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
     </row>
     <row r="36" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1686,7 +1686,7 @@
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
     </row>
     <row r="43" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
     </row>
     <row r="46" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1786,7 +1786,7 @@
         <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5 16384:16384" ht="45" x14ac:dyDescent="0.25">
@@ -1801,27 +1801,27 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B68" t="s">
         <v>90</v>
@@ -1984,7 +1984,7 @@
         <v>91</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>101</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>109</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2186,165 +2186,165 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" t="s">
         <v>182</v>
       </c>
-      <c r="D98" t="s">
-        <v>183</v>
-      </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" t="s">
         <v>170</v>
       </c>
-      <c r="D99" t="s">
-        <v>171</v>
-      </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" t="s">
         <v>172</v>
-      </c>
-      <c r="D100" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" t="s">
         <v>174</v>
-      </c>
-      <c r="D101" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" t="s">
         <v>176</v>
-      </c>
-      <c r="D102" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" t="s">
         <v>178</v>
-      </c>
-      <c r="D103" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" t="s">
         <v>180</v>
-      </c>
-      <c r="D104" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2379,38 +2379,38 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
         <v>145</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>146</v>
-      </c>
-      <c r="C109" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" t="s">
         <v>184</v>
       </c>
-      <c r="B110" t="s">
-        <v>147</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>185</v>
       </c>
-      <c r="D110" t="s">
-        <v>186</v>
-      </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,10 +2418,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
         <v>188</v>
-      </c>
-      <c r="D112" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2442,49 +2442,49 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" t="s">
         <v>138</v>
       </c>
-      <c r="C115" t="s">
-        <v>139</v>
-      </c>
       <c r="E115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,116 +2494,116 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" t="s">
         <v>251</v>
-      </c>
-      <c r="D124" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" t="s">
         <v>253</v>
-      </c>
-      <c r="D126" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" t="s">
         <v>255</v>
-      </c>
-      <c r="D128" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B129" t="s">
         <v>32</v>
       </c>
       <c r="C129" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" t="s">
         <v>258</v>
       </c>
-      <c r="D129" t="s">
-        <v>259</v>
-      </c>
       <c r="E129" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
         <v>44</v>
       </c>
       <c r="C130" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" t="s">
         <v>242</v>
       </c>
-      <c r="D130" t="s">
-        <v>243</v>
-      </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
+        <v>259</v>
+      </c>
+      <c r="D131" t="s">
         <v>260</v>
-      </c>
-      <c r="D131" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,25 +2611,25 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
         <v>91</v>
@@ -2637,12 +2637,12 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85137E0-1BBA-4902-8C32-149AAEB25BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ADF84E-6263-4B93-B9B7-5FE12F2A8EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="275">
   <si>
     <t>Programa</t>
   </si>
@@ -196,9 +196,6 @@
     <t>3c_figura_positividad.do</t>
   </si>
   <si>
-    <t>data_diaria_acumulado.dta</t>
-  </si>
-  <si>
     <t>positividad_diaria.png</t>
   </si>
   <si>
@@ -872,6 +869,12 @@
   </si>
   <si>
     <t>Generar Series de Datos (diaria, semanal, panel)</t>
+  </si>
+  <si>
+    <t>tasa_incidencia.png</t>
+  </si>
+  <si>
+    <t>tasa_incidencia.pdf</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1336,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1351,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>12</v>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1382,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,7 +1522,7 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,7 +1536,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,7 +1560,7 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,7 +1595,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,7 +1607,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1622,7 +1625,7 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,10 +1636,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1656,7 +1659,7 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1668,7 +1671,7 @@
     </row>
     <row r="36" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1677,40 +1680,40 @@
     </row>
     <row r="37" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1721,41 +1724,44 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>273</v>
+      </c>
+      <c r="D41" t="s">
+        <v>274</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
@@ -1767,7 +1773,7 @@
     </row>
     <row r="46" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1777,394 +1783,394 @@
     </row>
     <row r="47" spans="1:5 16384:16384" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5 16384:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>61</v>
       </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
         <v>65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
         <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
         <v>69</v>
-      </c>
-      <c r="D57" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
         <v>71</v>
-      </c>
-      <c r="D58" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
         <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
         <v>78</v>
-      </c>
-      <c r="D62" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
         <v>80</v>
-      </c>
-      <c r="D63" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
         <v>82</v>
-      </c>
-      <c r="D64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s">
         <v>84</v>
-      </c>
-      <c r="D65" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
         <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
         <v>88</v>
-      </c>
-      <c r="D67" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
         <v>93</v>
       </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>94</v>
       </c>
-      <c r="D69" t="s">
-        <v>95</v>
-      </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
         <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
         <v>105</v>
       </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" t="s">
-        <v>106</v>
-      </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
         <v>108</v>
       </c>
-      <c r="D76" t="s">
-        <v>109</v>
-      </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
         <v>111</v>
       </c>
-      <c r="B78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>112</v>
       </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
         <v>114</v>
       </c>
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
         <v>119</v>
-      </c>
-      <c r="D82" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
         <v>124</v>
-      </c>
-      <c r="D84" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="E85" s="13"/>
     </row>
@@ -2177,7 +2183,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2186,165 +2192,165 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
         <v>181</v>
       </c>
-      <c r="D98" t="s">
-        <v>182</v>
-      </c>
       <c r="E98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" t="s">
         <v>169</v>
       </c>
-      <c r="D99" t="s">
-        <v>170</v>
-      </c>
       <c r="E99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s">
         <v>171</v>
-      </c>
-      <c r="D100" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" t="s">
         <v>173</v>
-      </c>
-      <c r="D101" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" t="s">
         <v>175</v>
-      </c>
-      <c r="D102" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" t="s">
         <v>177</v>
-      </c>
-      <c r="D103" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" t="s">
         <v>179</v>
-      </c>
-      <c r="D104" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,7 +2361,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -2379,38 +2385,38 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
         <v>144</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>145</v>
-      </c>
-      <c r="C109" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" t="s">
         <v>183</v>
       </c>
-      <c r="B110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>184</v>
       </c>
-      <c r="D110" t="s">
-        <v>185</v>
-      </c>
       <c r="E110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" t="s">
         <v>187</v>
-      </c>
-      <c r="D112" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,7 +2439,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2442,49 +2448,49 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
         <v>137</v>
       </c>
-      <c r="C115" t="s">
-        <v>138</v>
-      </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E117" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,116 +2500,116 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E120" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" t="s">
         <v>250</v>
-      </c>
-      <c r="D124" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" t="s">
         <v>252</v>
-      </c>
-      <c r="D126" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" t="s">
         <v>254</v>
-      </c>
-      <c r="D128" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
         <v>32</v>
       </c>
       <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" t="s">
         <v>257</v>
       </c>
-      <c r="D129" t="s">
-        <v>258</v>
-      </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
         <v>44</v>
       </c>
       <c r="C130" t="s">
+        <v>240</v>
+      </c>
+      <c r="D130" t="s">
         <v>241</v>
       </c>
-      <c r="D130" t="s">
-        <v>242</v>
-      </c>
       <c r="E130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" t="s">
         <v>259</v>
-      </c>
-      <c r="D131" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,38 +2617,38 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_programas_inputs_outputs.xlsx
+++ b/Lista_programas_inputs_outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_covid_cusco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ADF84E-6263-4B93-B9B7-5FE12F2A8EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB37A33-97CF-491B-B3F4-49E005CBCF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$E$141</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1322,8 +1331,8 @@
   </sheetPr>
   <dimension ref="A1:XFD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
